--- a/siscae/src/main/resources/xlsx/reportePrestamosPorPeriodo.xlsx
+++ b/siscae/src/main/resources/xlsx/reportePrestamosPorPeriodo.xlsx
@@ -33,9 +33,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>REPORTE DE PRESTAMOS REALIZADOS POR TURNO</t>
-  </si>
   <si>
     <t>&lt;/jx:forEach&gt;</t>
   </si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>${row.estadiaPromedio}</t>
+  </si>
+  <si>
+    <t>REPORTE DE PRÉSTAMOS POR PERIODO</t>
   </si>
 </sst>
 </file>
@@ -533,6 +533,59 @@
         <a:xfrm>
           <a:off x="1364477" y="201707"/>
           <a:ext cx="615042" cy="795526"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>42183</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>11207</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>657225</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>11115</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Imagen 3" descr="Resultado de imagen para logo unmsm"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="6626"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1356633" y="201707"/>
+          <a:ext cx="615042" cy="800008"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,7 +875,7 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3:F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -852,7 +905,7 @@
     </row>
     <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="28" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D2" s="29"/>
       <c r="E2" s="29"/>
@@ -867,7 +920,7 @@
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
       <c r="C3" s="22" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D3" s="23"/>
       <c r="E3" s="23"/>
@@ -894,16 +947,16 @@
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>6</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>7</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="8"/>
@@ -914,7 +967,7 @@
     <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" s="15"/>
       <c r="E6" s="16"/>
@@ -928,16 +981,16 @@
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="19" t="s">
         <v>10</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>11</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -948,7 +1001,7 @@
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="1"/>
       <c r="C8" s="20" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>

--- a/siscae/src/main/resources/xlsx/reportePrestamosPorPeriodo.xlsx
+++ b/siscae/src/main/resources/xlsx/reportePrestamosPorPeriodo.xlsx
@@ -2,14 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bryan\Desktop\TODO\SISCAE\siscae\siscae\src\main\resources\xlsx\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <workbookPr defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14340" windowHeight="4425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17292" windowHeight="4716"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -22,7 +17,8 @@
     <definedName name="Titulo">Hoja1!$A$1:$K$2</definedName>
     <definedName name="Total">Hoja1!$A$11:$K$12</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,9 +87,6 @@
     <t>Tiempo Medio Estadía</t>
   </si>
   <si>
-    <t>${row.periodoPrestamo}</t>
-  </si>
-  <si>
     <t>${row.numeroPrestamos}</t>
   </si>
   <si>
@@ -104,12 +97,15 @@
   </si>
   <si>
     <t>REPORTE DE PRÉSTAMOS POR PERIODO</t>
+  </si>
+  <si>
+    <t>${row.ejeX}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
   </numFmts>
@@ -358,7 +354,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -397,6 +392,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -875,76 +871,76 @@
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3:F4"/>
+      <selection pane="bottomLeft" activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.28515625" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="21.42578125" customWidth="1"/>
-    <col min="5" max="5" width="27.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.7109375" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" customWidth="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1"/>
-    <col min="9" max="9" width="24.140625" customWidth="1"/>
-    <col min="10" max="10" width="17.28515625" customWidth="1"/>
-    <col min="11" max="11" width="21.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="16.44140625" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="5" max="5" width="27.44140625" customWidth="1"/>
+    <col min="6" max="6" width="31.6640625" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
+    <col min="8" max="8" width="27.109375" customWidth="1"/>
+    <col min="9" max="9" width="24.109375" customWidth="1"/>
+    <col min="10" max="10" width="17.33203125" customWidth="1"/>
+    <col min="11" max="11" width="21.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
+    <row r="1" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
       <c r="H1" s="8"/>
       <c r="I1" s="8"/>
       <c r="J1" s="8"/>
       <c r="K1" s="8"/>
     </row>
-    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C2" s="28" t="s">
+    <row r="2" spans="1:11" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
-      <c r="I2" s="21"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
       <c r="J2" s="8"/>
       <c r="K2" s="8"/>
     </row>
-    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="7"/>
-      <c r="C3" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="24"/>
+      <c r="C3" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="22"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
       <c r="K3" s="5"/>
     </row>
-    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="11"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="27"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="26"/>
       <c r="G4" s="8"/>
       <c r="H4" s="8"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
       <c r="K4" s="5"/>
     </row>
-    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B5" s="7"/>
       <c r="C5" s="9" t="s">
         <v>3</v>
@@ -964,7 +960,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
     </row>
-    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2"/>
       <c r="C6" s="14" t="s">
         <v>1</v>
@@ -978,19 +974,19 @@
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
     </row>
-    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="E7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>9</v>
-      </c>
-      <c r="F7" s="19" t="s">
-        <v>10</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -998,25 +994,25 @@
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
     </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="19" t="s">
         <v>0</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="20"/>
+      <c r="F8" s="19"/>
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
       <c r="J8" s="5"/>
       <c r="K8" s="5"/>
     </row>
-    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:11" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="I10"/>
     </row>
-    <row r="11" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1028,7 +1024,7 @@
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
     </row>
-    <row r="12" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1040,21 +1036,21 @@
       <c r="J12" s="1"/>
       <c r="K12" s="4"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="F13" s="13"/>
       <c r="G13" s="6"/>
     </row>
-    <row r="14" spans="1:11" ht="16.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" ht="16.8" x14ac:dyDescent="0.4">
       <c r="E14" s="4"/>
       <c r="F14" s="12"/>
       <c r="G14" s="10"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="E16" s="13"/>
       <c r="F16" s="13"/>
       <c r="G16" s="6"/>
